--- a/PRO1/step_3/results/res_trafo/loading_percent.xlsx
+++ b/PRO1/step_3/results/res_trafo/loading_percent.xlsx
@@ -400,25 +400,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27.41005316400506</v>
+        <v>27.67192888141118</v>
       </c>
       <c r="C2">
-        <v>23.42188548628871</v>
+        <v>23.49754641113499</v>
       </c>
       <c r="D2">
-        <v>0.2638550373229179</v>
+        <v>4.428107757948536</v>
       </c>
       <c r="E2">
-        <v>0.267513168418351</v>
+        <v>3.345900308208168</v>
       </c>
       <c r="F2">
-        <v>0.2640005784547176</v>
+        <v>3.384954215364001</v>
       </c>
       <c r="G2">
-        <v>0.2637012948515675</v>
+        <v>1.304850381317482</v>
       </c>
       <c r="H2">
-        <v>0.2641959858109483</v>
+        <v>2.342917425459456</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -426,25 +426,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.36667481474353</v>
+        <v>26.52339124900794</v>
       </c>
       <c r="C3">
-        <v>22.54125019845502</v>
+        <v>22.59165154910132</v>
       </c>
       <c r="D3">
-        <v>0.2641310323034936</v>
+        <v>2.342930740777862</v>
       </c>
       <c r="E3">
-        <v>0.2676019174960007</v>
+        <v>2.318844236779696</v>
       </c>
       <c r="F3">
-        <v>0.2642700481088393</v>
+        <v>2.34197080088003</v>
       </c>
       <c r="G3">
-        <v>0.2639837573984926</v>
+        <v>0.2638765009624271</v>
       </c>
       <c r="H3">
-        <v>0.2644570161367426</v>
+        <v>2.340652271129138</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -452,25 +452,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.28917663361914</v>
+        <v>25.47187834739725</v>
       </c>
       <c r="C4">
-        <v>21.63136539485483</v>
+        <v>21.65654622576773</v>
       </c>
       <c r="D4">
-        <v>0.2644153266863711</v>
+        <v>2.341130862470552</v>
       </c>
       <c r="E4">
-        <v>0.2676933314007488</v>
+        <v>1.292797567134669</v>
       </c>
       <c r="F4">
-        <v>0.264547612471311</v>
+        <v>1.302165880704331</v>
       </c>
       <c r="G4">
-        <v>0.2642747230187799</v>
+        <v>2.342138922042389</v>
       </c>
       <c r="H4">
-        <v>0.2647258748115774</v>
+        <v>2.338924569364795</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -478,25 +478,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.28376857992556</v>
+        <v>25.36206422289756</v>
       </c>
       <c r="C5">
-        <v>21.626797444188</v>
+        <v>21.70239389623367</v>
       </c>
       <c r="D5">
-        <v>0.2644167517386742</v>
+        <v>1.302360395417469</v>
       </c>
       <c r="E5">
-        <v>0.2676937896096514</v>
+        <v>3.344001214354973</v>
       </c>
       <c r="F5">
-        <v>0.264549003767045</v>
+        <v>1.301964356597287</v>
       </c>
       <c r="G5">
-        <v>0.2642761815349641</v>
+        <v>1.302781259094242</v>
       </c>
       <c r="H5">
-        <v>0.2647272224370652</v>
+        <v>0.2646766362126541</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -504,25 +504,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.59202864437115</v>
+        <v>24.77451109222771</v>
       </c>
       <c r="C6">
-        <v>21.04241701928238</v>
+        <v>21.0424170190098</v>
       </c>
       <c r="D6">
-        <v>0.264598876018601</v>
+        <v>2.33985028450725</v>
       </c>
       <c r="E6">
-        <v>0.2677523483378519</v>
+        <v>0.2677523358254872</v>
       </c>
       <c r="F6">
-        <v>0.2647268120881595</v>
+        <v>2.338950626655075</v>
       </c>
       <c r="G6">
-        <v>0.2644625844998073</v>
+        <v>1.302440255972398</v>
       </c>
       <c r="H6">
-        <v>0.2648994469340393</v>
+        <v>2.337735040658941</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -530,25 +530,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.13190206963043</v>
+        <v>25.49764281472686</v>
       </c>
       <c r="C7">
-        <v>21.4985174162538</v>
+        <v>21.54889398327296</v>
       </c>
       <c r="D7">
-        <v>0.2644567616420869</v>
+        <v>5.459959003146573</v>
       </c>
       <c r="E7">
-        <v>0.2677066542603967</v>
+        <v>2.318145781413409</v>
       </c>
       <c r="F7">
-        <v>0.264588065826408</v>
+        <v>4.41820460380544</v>
       </c>
       <c r="G7">
-        <v>0.2643171310681521</v>
+        <v>2.342723416892716</v>
       </c>
       <c r="H7">
-        <v>0.2647650582697252</v>
+        <v>3.377328055448976</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -556,25 +556,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.43297052720628</v>
+        <v>26.74674662495746</v>
       </c>
       <c r="C8">
-        <v>22.59721805105881</v>
+        <v>22.67284913424233</v>
       </c>
       <c r="D8">
-        <v>0.264113516351424</v>
+        <v>3.384132350752711</v>
       </c>
       <c r="E8">
-        <v>0.267596285156346</v>
+        <v>3.345026048059967</v>
       </c>
       <c r="F8">
-        <v>0.2642529465250612</v>
+        <v>3.382581542273305</v>
       </c>
       <c r="G8">
-        <v>0.2639658307235925</v>
+        <v>1.304160103138903</v>
       </c>
       <c r="H8">
-        <v>0.2644404505091783</v>
+        <v>5.459265959033391</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -582,25 +582,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.04108376542817</v>
+        <v>30.35713475138244</v>
       </c>
       <c r="C9">
-        <v>25.61848406093172</v>
+        <v>25.770130725514</v>
       </c>
       <c r="D9">
-        <v>0.2631429318761336</v>
+        <v>3.394888338634906</v>
       </c>
       <c r="E9">
-        <v>0.26729062467343</v>
+        <v>6.43223858013834</v>
       </c>
       <c r="F9">
-        <v>0.2633076369566088</v>
+        <v>1.306081399738332</v>
       </c>
       <c r="G9">
-        <v>1.306460051316411</v>
+        <v>7.579741332876252</v>
       </c>
       <c r="H9">
-        <v>0.263524170653425</v>
+        <v>2.347808827026818</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -608,25 +608,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>42.55632370711543</v>
+        <v>43.14783282689503</v>
       </c>
       <c r="C10">
-        <v>36.09087621167138</v>
+        <v>36.19245974954005</v>
       </c>
       <c r="D10">
-        <v>0.2597310101617675</v>
+        <v>3.434748034845658</v>
       </c>
       <c r="E10">
-        <v>0.2662065825327457</v>
+        <v>4.391577769511869</v>
       </c>
       <c r="F10">
-        <v>0.2599775513093042</v>
+        <v>7.665747152655189</v>
       </c>
       <c r="G10">
-        <v>2.374833883316216</v>
+        <v>5.558227957003028</v>
       </c>
       <c r="H10">
-        <v>1.314508328928139</v>
+        <v>10.83060369914447</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -634,25 +634,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>53.49456853615507</v>
+        <v>54.07041101900032</v>
       </c>
       <c r="C11">
-        <v>45.29978332652585</v>
+        <v>45.58135484474686</v>
       </c>
       <c r="D11">
-        <v>0.2567217422974243</v>
+        <v>5.612435321586476</v>
       </c>
       <c r="E11">
-        <v>0.2652218037878293</v>
+        <v>11.66570456161316</v>
       </c>
       <c r="F11">
-        <v>0.2570333401682746</v>
+        <v>7.747856681136822</v>
       </c>
       <c r="G11">
-        <v>0.2564036732244799</v>
+        <v>4.545853928745167</v>
       </c>
       <c r="H11">
-        <v>0.2574429756868907</v>
+        <v>5.597561579235927</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -660,25 +660,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>71.48531178966115</v>
+        <v>72.62995236996102</v>
       </c>
       <c r="C12">
-        <v>60.17597494014855</v>
+        <v>60.48622802877691</v>
       </c>
       <c r="D12">
-        <v>0.2515044512368405</v>
+        <v>16.70734712004668</v>
       </c>
       <c r="E12">
-        <v>0.2635685322304263</v>
+        <v>12.78103684560337</v>
       </c>
       <c r="F12">
-        <v>1.341155407041402</v>
+        <v>9.002524034679595</v>
       </c>
       <c r="G12">
-        <v>0.2510700692758186</v>
+        <v>7.935244832618292</v>
       </c>
       <c r="H12">
-        <v>1.339286800290404</v>
+        <v>13.35570364242531</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -686,25 +686,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>85.60721418935627</v>
+        <v>87.15118921846668</v>
       </c>
       <c r="C13">
-        <v>71.80479255756386</v>
+        <v>72.14410008889118</v>
       </c>
       <c r="D13">
-        <v>0.2472563038156276</v>
+        <v>11.41386590317339</v>
       </c>
       <c r="E13">
-        <v>1.308714087718955</v>
+        <v>14.94636299714753</v>
       </c>
       <c r="F13">
-        <v>0.2477839020607184</v>
+        <v>18.09017932972794</v>
       </c>
       <c r="G13">
-        <v>1.358939909985611</v>
+        <v>18.17289641190914</v>
       </c>
       <c r="H13">
-        <v>1.352883102020061</v>
+        <v>13.58235030369825</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -712,25 +712,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>86.85248917577765</v>
+        <v>88.51991021341182</v>
       </c>
       <c r="C14">
-        <v>72.87096263077649</v>
+        <v>73.0795212844795</v>
       </c>
       <c r="D14">
-        <v>0.2469024210947923</v>
+        <v>14.7971741918863</v>
       </c>
       <c r="E14">
-        <v>1.309090737962226</v>
+        <v>9.698104379710291</v>
       </c>
       <c r="F14">
-        <v>0.2474357672093272</v>
+        <v>18.12185444395588</v>
       </c>
       <c r="G14">
-        <v>0.246365763491658</v>
+        <v>15.95600040811754</v>
       </c>
       <c r="H14">
-        <v>0.2481297821265362</v>
+        <v>14.72053351423004</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -738,25 +738,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>85.79107975958085</v>
+        <v>87.30390055764565</v>
       </c>
       <c r="C15">
-        <v>71.97716951842304</v>
+        <v>72.36873693892068</v>
       </c>
       <c r="D15">
-        <v>0.2472276613142398</v>
+        <v>13.6517841424199</v>
       </c>
       <c r="E15">
-        <v>0.2622019851238083</v>
+        <v>15.99942727412624</v>
       </c>
       <c r="F15">
-        <v>0.247753768143911</v>
+        <v>13.62092815289322</v>
       </c>
       <c r="G15">
-        <v>0.2466981041418058</v>
+        <v>15.92726942867577</v>
       </c>
       <c r="H15">
-        <v>0.2484385148041514</v>
+        <v>14.69593428855574</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -764,25 +764,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>85.75916239679216</v>
+        <v>87.18210141189483</v>
       </c>
       <c r="C16">
-        <v>71.977024220861</v>
+        <v>72.39518271779393</v>
       </c>
       <c r="D16">
-        <v>0.2472374280167975</v>
+        <v>8.057515578752398</v>
       </c>
       <c r="E16">
-        <v>1.308774819158044</v>
+        <v>18.1039162667512</v>
       </c>
       <c r="F16">
-        <v>0.2477633173564152</v>
+        <v>14.73336469003992</v>
       </c>
       <c r="G16">
-        <v>0.2467080847961224</v>
+        <v>17.04413321883194</v>
       </c>
       <c r="H16">
-        <v>0.2484477860691263</v>
+        <v>14.69157298312121</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -790,25 +790,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>85.62058770406486</v>
+        <v>87.55203157959885</v>
       </c>
       <c r="C17">
-        <v>71.8636743773888</v>
+        <v>72.2555097165835</v>
       </c>
       <c r="D17">
-        <v>0.2472798227019862</v>
+        <v>18.15040130971568</v>
       </c>
       <c r="E17">
-        <v>1.308734845435584</v>
+        <v>17.05053909485994</v>
       </c>
       <c r="F17">
-        <v>0.2478047679054264</v>
+        <v>18.10928346992362</v>
       </c>
       <c r="G17">
-        <v>0.2467514082663327</v>
+        <v>13.69696729746186</v>
       </c>
       <c r="H17">
-        <v>0.2484880300100608</v>
+        <v>23.64020315383295</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -816,25 +816,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>72.12192748305111</v>
+        <v>74.02395712917837</v>
       </c>
       <c r="C18">
-        <v>60.70132432367959</v>
+        <v>61.14185062833186</v>
       </c>
       <c r="D18">
-        <v>0.2513164637213412</v>
+        <v>23.38241023284229</v>
       </c>
       <c r="E18">
-        <v>0.2635087346988819</v>
+        <v>18.01626806607335</v>
       </c>
       <c r="F18">
-        <v>0.2517501624650169</v>
+        <v>16.72563791372906</v>
       </c>
       <c r="G18">
-        <v>0.2508779012456203</v>
+        <v>15.68533579557764</v>
       </c>
       <c r="H18">
-        <v>2.427734493589077</v>
+        <v>19.98164845797066</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -842,25 +842,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>48.26804852422597</v>
+        <v>50.3846366282033</v>
       </c>
       <c r="C19">
-        <v>40.84742736633581</v>
+        <v>41.28237962668724</v>
       </c>
       <c r="D19">
-        <v>0.2581388418467828</v>
+        <v>18.47944346243567</v>
       </c>
       <c r="E19">
-        <v>0.2657016147813707</v>
+        <v>17.87082482159128</v>
       </c>
       <c r="F19">
-        <v>0.2584218743535154</v>
+        <v>21.67542530910544</v>
       </c>
       <c r="G19">
-        <v>2.386570645701175</v>
+        <v>26.04488424600707</v>
       </c>
       <c r="H19">
-        <v>2.379782842319006</v>
+        <v>21.64063160187417</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -868,25 +868,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>41.95579146121636</v>
+        <v>43.77102320366958</v>
       </c>
       <c r="C20">
-        <v>35.61027868935367</v>
+        <v>36.14672940143365</v>
       </c>
       <c r="D20">
-        <v>0.2599126660675681</v>
+        <v>15.14138254225008</v>
       </c>
       <c r="E20">
-        <v>0.266257166095313</v>
+        <v>21.98312696080114</v>
       </c>
       <c r="F20">
-        <v>0.2601497854058885</v>
+        <v>15.12462474986573</v>
       </c>
       <c r="G20">
-        <v>0.2596682379488206</v>
+        <v>19.42637042301817</v>
       </c>
       <c r="H20">
-        <v>2.367802528517353</v>
+        <v>24.67840459508772</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -894,25 +894,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.23724431340786</v>
+        <v>37.13992716945414</v>
       </c>
       <c r="C21">
-        <v>29.99258999129324</v>
+        <v>30.63017148416026</v>
       </c>
       <c r="D21">
-        <v>0.261751959110602</v>
+        <v>22.45278371960438</v>
       </c>
       <c r="E21">
-        <v>0.2668424785530182</v>
+        <v>26.08105560667831</v>
       </c>
       <c r="F21">
-        <v>0.2619465744292794</v>
+        <v>12.91304296474789</v>
       </c>
       <c r="G21">
-        <v>0.2615496017994441</v>
+        <v>19.29352325790306</v>
       </c>
       <c r="H21">
-        <v>1.308738852772981</v>
+        <v>22.40463300696685</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -920,25 +920,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.76690545595889</v>
+        <v>34.12379181051589</v>
       </c>
       <c r="C22">
-        <v>27.91436300793929</v>
+        <v>28.49988243895644</v>
       </c>
       <c r="D22">
-        <v>0.2624167928155933</v>
+        <v>18.14325227883835</v>
       </c>
       <c r="E22">
-        <v>0.2670562309394146</v>
+        <v>23.98860564550115</v>
       </c>
       <c r="F22">
-        <v>1.307580586549618</v>
+        <v>11.81236356215059</v>
       </c>
       <c r="G22">
-        <v>0.2622298743883372</v>
+        <v>14.99460593718256</v>
       </c>
       <c r="H22">
-        <v>0.2628343952642341</v>
+        <v>10.75042245098614</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -946,25 +946,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.92988946699843</v>
+        <v>33.07044996865772</v>
       </c>
       <c r="C23">
-        <v>27.20963257167461</v>
+        <v>27.5902708961242</v>
       </c>
       <c r="D23">
-        <v>0.26263824610831</v>
+        <v>14.96010283660451</v>
       </c>
       <c r="E23">
-        <v>0.2671283739631368</v>
+        <v>15.71219077430775</v>
       </c>
       <c r="F23">
-        <v>0.2628148249236179</v>
+        <v>8.647212231564032</v>
       </c>
       <c r="G23">
-        <v>1.307997494439583</v>
+        <v>11.81527519925887</v>
       </c>
       <c r="H23">
-        <v>0.2630467094240039</v>
+        <v>11.78524865362885</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -972,25 +972,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.88682257967828</v>
+        <v>30.59867842236875</v>
       </c>
       <c r="C24">
-        <v>25.4664526552314</v>
+        <v>25.7195387341162</v>
       </c>
       <c r="D24">
-        <v>0.2631769166357631</v>
+        <v>7.580768965266447</v>
       </c>
       <c r="E24">
-        <v>0.2673060814041113</v>
+        <v>10.54845716292746</v>
       </c>
       <c r="F24">
-        <v>1.30537772707714</v>
+        <v>8.622064108235044</v>
       </c>
       <c r="G24">
-        <v>0.2630080202638857</v>
+        <v>3.399356249578878</v>
       </c>
       <c r="H24">
-        <v>1.30473471349379</v>
+        <v>11.75112772520713</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -998,25 +998,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.95861879223532</v>
+        <v>29.30012398247544</v>
       </c>
       <c r="C25">
-        <v>24.68398153103818</v>
+        <v>24.81025050823691</v>
       </c>
       <c r="D25">
-        <v>0.2634240153518653</v>
+        <v>3.391898384034924</v>
       </c>
       <c r="E25">
-        <v>0.2673855066699775</v>
+        <v>5.402167924135912</v>
       </c>
       <c r="F25">
-        <v>1.304664825592446</v>
+        <v>4.432925601835993</v>
       </c>
       <c r="G25">
-        <v>0.2632609603011856</v>
+        <v>3.393779541215449</v>
       </c>
       <c r="H25">
-        <v>1.304045562759748</v>
+        <v>5.471883964783395</v>
       </c>
     </row>
   </sheetData>

--- a/PRO1/step_3/results/res_trafo/loading_percent.xlsx
+++ b/PRO1/step_3/results/res_trafo/loading_percent.xlsx
@@ -400,25 +400,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27.67192888141118</v>
+        <v>27.43619555144485</v>
       </c>
       <c r="C2">
-        <v>23.49754641113499</v>
+        <v>23.42188548628871</v>
       </c>
       <c r="D2">
-        <v>4.428107757948536</v>
+        <v>0.2638380750548214</v>
       </c>
       <c r="E2">
-        <v>3.345900308208168</v>
+        <v>0.267513168418351</v>
       </c>
       <c r="F2">
-        <v>3.384954215364001</v>
+        <v>1.303473136068624</v>
       </c>
       <c r="G2">
-        <v>1.304850381317482</v>
+        <v>0.2636843208182839</v>
       </c>
       <c r="H2">
-        <v>2.342917425459456</v>
+        <v>0.2641790516651121</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -426,25 +426,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.52339124900794</v>
+        <v>26.39278025933316</v>
       </c>
       <c r="C3">
-        <v>22.59165154910132</v>
+        <v>22.54125019845502</v>
       </c>
       <c r="D3">
-        <v>2.342930740777862</v>
+        <v>0.2641141330047871</v>
       </c>
       <c r="E3">
-        <v>2.318844236779696</v>
+        <v>0.2676019174960007</v>
       </c>
       <c r="F3">
-        <v>2.34197080088003</v>
+        <v>1.302682128242274</v>
       </c>
       <c r="G3">
-        <v>0.2638765009624271</v>
+        <v>0.2639668468031766</v>
       </c>
       <c r="H3">
-        <v>2.340652271129138</v>
+        <v>0.264440143872206</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -452,25 +452,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.47187834739725</v>
+        <v>25.28917663327386</v>
       </c>
       <c r="C4">
-        <v>21.65654622576773</v>
+        <v>21.63136539485483</v>
       </c>
       <c r="D4">
-        <v>2.341130862470552</v>
+        <v>0.2644153266869225</v>
       </c>
       <c r="E4">
-        <v>1.292797567134669</v>
+        <v>0.2676933314007488</v>
       </c>
       <c r="F4">
-        <v>1.302165880704331</v>
+        <v>0.2645476000079352</v>
       </c>
       <c r="G4">
-        <v>2.342138922042389</v>
+        <v>0.2642747230194855</v>
       </c>
       <c r="H4">
-        <v>2.338924569364795</v>
+        <v>0.264725874812176</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -478,25 +478,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.36206422289756</v>
+        <v>25.28376857992589</v>
       </c>
       <c r="C5">
-        <v>21.70239389623367</v>
+        <v>21.626797444188</v>
       </c>
       <c r="D5">
-        <v>1.302360395417469</v>
+        <v>0.264416751738639</v>
       </c>
       <c r="E5">
-        <v>3.344001214354973</v>
+        <v>0.2676937896096514</v>
       </c>
       <c r="F5">
-        <v>1.301964356597287</v>
+        <v>0.2645490037671267</v>
       </c>
       <c r="G5">
-        <v>1.302781259094242</v>
+        <v>0.2642761815349058</v>
       </c>
       <c r="H5">
-        <v>0.2646766362126541</v>
+        <v>0.2647272224369829</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -504,25 +504,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.77451109222771</v>
+        <v>24.59202864437152</v>
       </c>
       <c r="C6">
-        <v>21.0424170190098</v>
+        <v>21.06759092294143</v>
       </c>
       <c r="D6">
-        <v>2.33985028450725</v>
+        <v>0.2645988760186596</v>
       </c>
       <c r="E6">
-        <v>0.2677523358254872</v>
+        <v>1.292630545529656</v>
       </c>
       <c r="F6">
-        <v>2.338950626655075</v>
+        <v>0.2647268120882884</v>
       </c>
       <c r="G6">
-        <v>1.302440255972398</v>
+        <v>0.2644625844995955</v>
       </c>
       <c r="H6">
-        <v>2.337735040658941</v>
+        <v>0.2648994469340974</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -530,25 +530,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.49764281472686</v>
+        <v>25.15792493393231</v>
       </c>
       <c r="C7">
-        <v>21.54889398327296</v>
+        <v>21.49851741625266</v>
       </c>
       <c r="D7">
-        <v>5.459959003146573</v>
+        <v>0.2644400093939182</v>
       </c>
       <c r="E7">
-        <v>2.318145781413409</v>
+        <v>0.2677066543105999</v>
       </c>
       <c r="F7">
-        <v>4.41820460380544</v>
+        <v>0.2645713249478115</v>
       </c>
       <c r="G7">
-        <v>2.342723416892716</v>
+        <v>0.2643003681189386</v>
       </c>
       <c r="H7">
-        <v>3.377328055448976</v>
+        <v>1.301227227379357</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -556,25 +556,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.74674662495746</v>
+        <v>26.45907828948702</v>
       </c>
       <c r="C8">
-        <v>22.67284913424233</v>
+        <v>22.59721805105877</v>
       </c>
       <c r="D8">
-        <v>3.384132350752711</v>
+        <v>0.2640966130629014</v>
       </c>
       <c r="E8">
-        <v>3.345026048059967</v>
+        <v>0.2675962851563812</v>
       </c>
       <c r="F8">
-        <v>3.382581542273305</v>
+        <v>1.302732246244567</v>
       </c>
       <c r="G8">
-        <v>1.304160103138903</v>
+        <v>0.2639489161091094</v>
       </c>
       <c r="H8">
-        <v>5.459265959033391</v>
+        <v>0.2644235878006646</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -582,25 +582,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.35713475138244</v>
+        <v>30.04102059701833</v>
       </c>
       <c r="C9">
-        <v>25.770130725514</v>
+        <v>25.61848406093264</v>
       </c>
       <c r="D9">
-        <v>3.394888338634906</v>
+        <v>0.2631458688307897</v>
       </c>
       <c r="E9">
-        <v>6.43223858013834</v>
+        <v>0.26729062467343</v>
       </c>
       <c r="F9">
-        <v>1.306081399738332</v>
+        <v>1.305466218960807</v>
       </c>
       <c r="G9">
-        <v>7.579741332876252</v>
+        <v>0.2629759343869661</v>
       </c>
       <c r="H9">
-        <v>2.347808827026818</v>
+        <v>0.2635242840646136</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -608,25 +608,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>43.14783282689503</v>
+        <v>42.47587748123447</v>
       </c>
       <c r="C10">
-        <v>36.19245974954005</v>
+        <v>36.09087621167114</v>
       </c>
       <c r="D10">
-        <v>3.434748034845658</v>
+        <v>0.2597907664266936</v>
       </c>
       <c r="E10">
-        <v>4.391577769511869</v>
+        <v>0.266206582532699</v>
       </c>
       <c r="F10">
-        <v>7.665747152655189</v>
+        <v>0.2600315049119103</v>
       </c>
       <c r="G10">
-        <v>5.558227957003028</v>
+        <v>0.2595427562975338</v>
       </c>
       <c r="H10">
-        <v>10.83060369914447</v>
+        <v>0.260349853614635</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -634,25 +634,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>54.07041101900032</v>
+        <v>53.54908979312027</v>
       </c>
       <c r="C11">
-        <v>45.58135484474686</v>
+        <v>45.29978332652574</v>
       </c>
       <c r="D11">
-        <v>5.612435321586476</v>
+        <v>0.2566845647261172</v>
       </c>
       <c r="E11">
-        <v>11.66570456161316</v>
+        <v>0.2652218037878002</v>
       </c>
       <c r="F11">
-        <v>7.747856681136822</v>
+        <v>1.324756094874624</v>
       </c>
       <c r="G11">
-        <v>4.545853928745167</v>
+        <v>0.2563664453588865</v>
       </c>
       <c r="H11">
-        <v>5.597561579235927</v>
+        <v>1.323457669829913</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -660,25 +660,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>72.62995236996102</v>
+        <v>71.57082239095257</v>
       </c>
       <c r="C12">
-        <v>60.48622802877691</v>
+        <v>60.17597494014895</v>
       </c>
       <c r="D12">
-        <v>16.70734712004668</v>
+        <v>0.2514405064227141</v>
       </c>
       <c r="E12">
-        <v>12.78103684560337</v>
+        <v>0.2635685322304105</v>
       </c>
       <c r="F12">
-        <v>9.002524034679595</v>
+        <v>4.611752642368373</v>
       </c>
       <c r="G12">
-        <v>7.935244832618292</v>
+        <v>1.344257146668368</v>
       </c>
       <c r="H12">
-        <v>13.35570364242531</v>
+        <v>0.2524342386207764</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -686,25 +686,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>87.15118921846668</v>
+        <v>85.69534873469362</v>
       </c>
       <c r="C13">
-        <v>72.14410008889118</v>
+        <v>71.83076988691914</v>
       </c>
       <c r="D13">
-        <v>11.41386590317339</v>
+        <v>2.46775741377846</v>
       </c>
       <c r="E13">
-        <v>14.94636299714753</v>
+        <v>2.355561403309959</v>
       </c>
       <c r="F13">
-        <v>18.09017932972794</v>
+        <v>3.57200642907221</v>
       </c>
       <c r="G13">
-        <v>18.17289641190914</v>
+        <v>0.2466609781383513</v>
       </c>
       <c r="H13">
-        <v>13.58235030369825</v>
+        <v>0.2484028584959173</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -712,25 +712,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>88.51991021341182</v>
+        <v>86.94096489842828</v>
       </c>
       <c r="C14">
-        <v>73.0795212844795</v>
+        <v>72.87096263081462</v>
       </c>
       <c r="D14">
-        <v>14.7971741918863</v>
+        <v>1.358565273960585</v>
       </c>
       <c r="E14">
-        <v>9.698104379710291</v>
+        <v>1.309090739428662</v>
       </c>
       <c r="F14">
-        <v>18.12185444395588</v>
+        <v>1.356688655873017</v>
       </c>
       <c r="G14">
-        <v>15.95600040811754</v>
+        <v>1.360463861446458</v>
       </c>
       <c r="H14">
-        <v>14.72053351423004</v>
+        <v>0.2480655756293572</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -738,25 +738,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>87.30390055764565</v>
+        <v>85.90817156179996</v>
       </c>
       <c r="C15">
-        <v>72.36873693892068</v>
+        <v>72.05511288773911</v>
       </c>
       <c r="D15">
-        <v>13.6517841424199</v>
+        <v>0.2471398320965782</v>
       </c>
       <c r="E15">
-        <v>15.99942727412624</v>
+        <v>3.403026018938956</v>
       </c>
       <c r="F15">
-        <v>13.62092815289322</v>
+        <v>1.355652091706084</v>
       </c>
       <c r="G15">
-        <v>15.92726942867577</v>
+        <v>1.359354865729184</v>
       </c>
       <c r="H15">
-        <v>14.69593428855574</v>
+        <v>2.458499829307995</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -764,25 +764,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>87.18210141189483</v>
+        <v>85.81798607428287</v>
       </c>
       <c r="C16">
-        <v>72.39518271779393</v>
+        <v>71.97702422082635</v>
       </c>
       <c r="D16">
-        <v>8.057515578752398</v>
+        <v>0.247191555749378</v>
       </c>
       <c r="E16">
-        <v>18.1039162667512</v>
+        <v>1.308774817744586</v>
       </c>
       <c r="F16">
-        <v>14.73336469003992</v>
+        <v>1.355473566142384</v>
       </c>
       <c r="G16">
-        <v>17.04413321883194</v>
+        <v>1.359172162998262</v>
       </c>
       <c r="H16">
-        <v>14.69157298312121</v>
+        <v>0.2484051816848972</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -790,25 +790,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>87.55203157959885</v>
+        <v>85.7667658756376</v>
       </c>
       <c r="C17">
-        <v>72.2555097165835</v>
+        <v>71.86367437738896</v>
       </c>
       <c r="D17">
-        <v>18.15040130971568</v>
+        <v>0.2471741062084434</v>
       </c>
       <c r="E17">
-        <v>17.05053909485994</v>
+        <v>1.308734845435549</v>
       </c>
       <c r="F17">
-        <v>18.10928346992362</v>
+        <v>3.572262683260283</v>
       </c>
       <c r="G17">
-        <v>13.69696729746186</v>
+        <v>0.2466454528458036</v>
       </c>
       <c r="H17">
-        <v>23.64020315383295</v>
+        <v>2.458273196754498</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -816,25 +816,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>74.02395712917837</v>
+        <v>72.23546266634938</v>
       </c>
       <c r="C18">
-        <v>61.14185062833186</v>
+        <v>60.70132432367985</v>
       </c>
       <c r="D18">
-        <v>23.38241023284229</v>
+        <v>0.2512360800664487</v>
       </c>
       <c r="E18">
-        <v>18.01626806607335</v>
+        <v>0.2635087346988858</v>
       </c>
       <c r="F18">
-        <v>16.72563791372906</v>
+        <v>3.523733817105697</v>
       </c>
       <c r="G18">
-        <v>15.68533579557764</v>
+        <v>0.2507973678687586</v>
       </c>
       <c r="H18">
-        <v>19.98164845797066</v>
+        <v>3.516847955431748</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -842,25 +842,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>50.3846366282033</v>
+        <v>48.32189163184576</v>
       </c>
       <c r="C19">
-        <v>41.28237962668724</v>
+        <v>40.87286398292552</v>
       </c>
       <c r="D19">
-        <v>18.47944346243567</v>
+        <v>1.321266983515617</v>
       </c>
       <c r="E19">
-        <v>17.87082482159128</v>
+        <v>1.298493216140437</v>
       </c>
       <c r="F19">
-        <v>21.67542530910544</v>
+        <v>1.320402085051094</v>
       </c>
       <c r="G19">
-        <v>26.04488424600707</v>
+        <v>0.2578213462024129</v>
       </c>
       <c r="H19">
-        <v>21.64063160187417</v>
+        <v>4.502444734376246</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -868,25 +868,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>43.77102320366958</v>
+        <v>42.14335835588317</v>
       </c>
       <c r="C20">
-        <v>36.14672940143365</v>
+        <v>35.66102027096328</v>
       </c>
       <c r="D20">
-        <v>15.14138254225008</v>
+        <v>2.372678603787931</v>
       </c>
       <c r="E20">
-        <v>21.98312696080114</v>
+        <v>2.32786812018348</v>
       </c>
       <c r="F20">
-        <v>15.12462474986573</v>
+        <v>3.426872045807388</v>
       </c>
       <c r="G20">
-        <v>19.42637042301817</v>
+        <v>1.316852764308057</v>
       </c>
       <c r="H20">
-        <v>24.67840459508772</v>
+        <v>3.423279025068911</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -894,25 +894,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>37.13992716945414</v>
+        <v>35.34314762467189</v>
       </c>
       <c r="C21">
-        <v>30.63017148416026</v>
+        <v>30.01787543298084</v>
       </c>
       <c r="D21">
-        <v>22.45278371960438</v>
+        <v>1.310326318843746</v>
       </c>
       <c r="E21">
-        <v>26.08105560667831</v>
+        <v>1.295216677693508</v>
       </c>
       <c r="F21">
-        <v>12.91304296474789</v>
+        <v>1.309731809797891</v>
       </c>
       <c r="G21">
-        <v>19.29352325790306</v>
+        <v>1.310945238605819</v>
       </c>
       <c r="H21">
-        <v>22.40463300696685</v>
+        <v>2.356025539104696</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -920,25 +920,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.12379181051589</v>
+        <v>32.87240084900301</v>
       </c>
       <c r="C22">
-        <v>28.49988243895644</v>
+        <v>27.93962142466232</v>
       </c>
       <c r="D22">
-        <v>18.14325227883835</v>
+        <v>1.308331030609878</v>
       </c>
       <c r="E22">
-        <v>23.98860564550115</v>
+        <v>1.294606985185827</v>
       </c>
       <c r="F22">
-        <v>11.81236356215059</v>
+        <v>2.353332137422129</v>
       </c>
       <c r="G22">
-        <v>14.99460593718256</v>
+        <v>1.308899503000235</v>
       </c>
       <c r="H22">
-        <v>10.75042245098614</v>
+        <v>1.307068141163787</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -946,25 +946,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.07044996865772</v>
+        <v>32.06152928340265</v>
       </c>
       <c r="C23">
-        <v>27.5902708961242</v>
+        <v>27.26014945151943</v>
       </c>
       <c r="D23">
-        <v>14.96010283660451</v>
+        <v>1.307703932799422</v>
       </c>
       <c r="E23">
-        <v>15.71219077430775</v>
+        <v>2.322010008390296</v>
       </c>
       <c r="F23">
-        <v>8.647212231564032</v>
+        <v>4.442263711478824</v>
       </c>
       <c r="G23">
-        <v>11.81527519925887</v>
+        <v>0.2623700975436781</v>
       </c>
       <c r="H23">
-        <v>11.78524865362885</v>
+        <v>1.306488059129173</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -972,25 +972,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.59867842236875</v>
+        <v>29.96576749780159</v>
       </c>
       <c r="C24">
-        <v>25.7195387341162</v>
+        <v>25.49168008102698</v>
       </c>
       <c r="D24">
-        <v>7.580768965266447</v>
+        <v>0.2631221695090668</v>
       </c>
       <c r="E24">
-        <v>10.54845716292746</v>
+        <v>1.293895990711009</v>
       </c>
       <c r="F24">
-        <v>8.622064108235044</v>
+        <v>4.433963649988985</v>
       </c>
       <c r="G24">
-        <v>3.399356249578878</v>
+        <v>1.30651835981251</v>
       </c>
       <c r="H24">
-        <v>11.75112772520713</v>
+        <v>0.263500942548254</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -998,25 +998,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.30012398247544</v>
+        <v>28.95872638177973</v>
       </c>
       <c r="C25">
-        <v>24.81025050823691</v>
+        <v>24.68398153100106</v>
       </c>
       <c r="D25">
-        <v>3.391898384034924</v>
+        <v>0.2634210020715058</v>
       </c>
       <c r="E25">
-        <v>5.402167924135912</v>
+        <v>0.2673855054977355</v>
       </c>
       <c r="F25">
-        <v>4.432925601835993</v>
+        <v>1.304665320305603</v>
       </c>
       <c r="G25">
-        <v>3.393779541215449</v>
+        <v>1.305615223339886</v>
       </c>
       <c r="H25">
-        <v>5.471883964783395</v>
+        <v>0.2637863201831487</v>
       </c>
     </row>
   </sheetData>

--- a/PRO1/step_3/results/res_trafo/loading_percent.xlsx
+++ b/PRO1/step_3/results/res_trafo/loading_percent.xlsx
@@ -400,25 +400,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27.43619555144485</v>
+        <v>27.80092885869304</v>
       </c>
       <c r="C2">
-        <v>23.42188548628871</v>
+        <v>23.67401530738431</v>
       </c>
       <c r="D2">
-        <v>0.2638380750548214</v>
+        <v>5.504233756908855</v>
       </c>
       <c r="E2">
-        <v>0.267513168418351</v>
+        <v>15.96070750817679</v>
       </c>
       <c r="F2">
-        <v>1.303473136068624</v>
+        <v>15.97227618470053</v>
       </c>
       <c r="G2">
-        <v>0.2636843208182839</v>
+        <v>21.21429875960476</v>
       </c>
       <c r="H2">
-        <v>0.2641790516651121</v>
+        <v>16.54237742217947</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -426,25 +426,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.39278025933316</v>
+        <v>26.47546066207205</v>
       </c>
       <c r="C3">
-        <v>22.54125019845502</v>
+        <v>22.71701502148927</v>
       </c>
       <c r="D3">
-        <v>0.2641141330047871</v>
+        <v>5.501159950652083</v>
       </c>
       <c r="E3">
-        <v>0.2676019174960007</v>
+        <v>8.125741681048671</v>
       </c>
       <c r="F3">
-        <v>1.302682128242274</v>
+        <v>5.526617061661006</v>
       </c>
       <c r="G3">
-        <v>0.2639668468031766</v>
+        <v>10.74086696897962</v>
       </c>
       <c r="H3">
-        <v>0.264440143872206</v>
+        <v>11.6700305017558</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -452,25 +452,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.28917663327386</v>
+        <v>25.37732508547845</v>
       </c>
       <c r="C4">
-        <v>21.63136539485483</v>
+        <v>21.73107982435348</v>
       </c>
       <c r="D4">
-        <v>0.2644153266869225</v>
+        <v>2.911879191335304</v>
       </c>
       <c r="E4">
-        <v>0.2676933314007488</v>
+        <v>5.520051518435407</v>
       </c>
       <c r="F4">
-        <v>0.2645476000079352</v>
+        <v>5.522992852459375</v>
       </c>
       <c r="G4">
-        <v>0.2642747230194855</v>
+        <v>13.34021356015267</v>
       </c>
       <c r="H4">
-        <v>0.264725874812176</v>
+        <v>6.808995043443601</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -478,25 +478,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.28376857992589</v>
+        <v>25.29361227171898</v>
       </c>
       <c r="C5">
-        <v>21.626797444188</v>
+        <v>21.72651166618357</v>
       </c>
       <c r="D5">
-        <v>0.264416751738639</v>
+        <v>8.087175115391387</v>
       </c>
       <c r="E5">
-        <v>0.2676937896096514</v>
+        <v>0.3255479736593634</v>
       </c>
       <c r="F5">
-        <v>0.2645490037671267</v>
+        <v>2.922763035050882</v>
       </c>
       <c r="G5">
-        <v>0.2642761815349058</v>
+        <v>8.126862834164543</v>
       </c>
       <c r="H5">
-        <v>0.2647272224369829</v>
+        <v>6.808984613947648</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -504,25 +504,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.59202864437152</v>
+        <v>24.5536477894986</v>
       </c>
       <c r="C6">
-        <v>21.06759092294143</v>
+        <v>21.16739314693493</v>
       </c>
       <c r="D6">
-        <v>0.2645988760186596</v>
+        <v>2.911012591019551</v>
       </c>
       <c r="E6">
-        <v>1.292630545529656</v>
+        <v>5.517024687163619</v>
       </c>
       <c r="F6">
-        <v>0.2647268120882884</v>
+        <v>5.519614635795364</v>
       </c>
       <c r="G6">
-        <v>0.2644625844995955</v>
+        <v>0.3253916112829664</v>
       </c>
       <c r="H6">
-        <v>0.2648994469340974</v>
+        <v>8.425483202850812</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -530,25 +530,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.15792493393231</v>
+        <v>25.48003395504958</v>
       </c>
       <c r="C7">
-        <v>21.49851741625266</v>
+        <v>21.87799954590978</v>
       </c>
       <c r="D7">
-        <v>0.2644400093939182</v>
+        <v>8.088029523928475</v>
       </c>
       <c r="E7">
-        <v>0.2677066543105999</v>
+        <v>15.93616035011776</v>
       </c>
       <c r="F7">
-        <v>0.2645713249478115</v>
+        <v>21.1699807137643</v>
       </c>
       <c r="G7">
-        <v>0.2643003681189386</v>
+        <v>8.129800689483552</v>
       </c>
       <c r="H7">
-        <v>1.301227227379357</v>
+        <v>24.65785771812748</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -556,25 +556,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.45907828948702</v>
+        <v>26.67111076250776</v>
       </c>
       <c r="C8">
-        <v>22.59721805105877</v>
+        <v>22.92575579719268</v>
       </c>
       <c r="D8">
-        <v>0.2640966130629014</v>
+        <v>8.091985211070272</v>
       </c>
       <c r="E8">
-        <v>0.2675962851563812</v>
+        <v>10.7318283966353</v>
       </c>
       <c r="F8">
-        <v>1.302732246244567</v>
+        <v>15.9576702852899</v>
       </c>
       <c r="G8">
-        <v>0.2639489161091094</v>
+        <v>8.135537216598438</v>
       </c>
       <c r="H8">
-        <v>0.2644235878006646</v>
+        <v>21.41286235947357</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -582,25 +582,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.04102059701833</v>
+        <v>30.31496442985201</v>
       </c>
       <c r="C9">
-        <v>25.61848406093264</v>
+        <v>25.89640409226083</v>
       </c>
       <c r="D9">
-        <v>0.2631458688307897</v>
+        <v>10.70116998032242</v>
       </c>
       <c r="E9">
-        <v>0.26729062467343</v>
+        <v>8.14567959380604</v>
       </c>
       <c r="F9">
-        <v>1.305466218960807</v>
+        <v>13.38020613335354</v>
       </c>
       <c r="G9">
-        <v>0.2629759343869661</v>
+        <v>18.62641935033201</v>
       </c>
       <c r="H9">
-        <v>0.2635242840646136</v>
+        <v>18.18176778406686</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -608,25 +608,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>42.47587748123447</v>
+        <v>42.843675855665</v>
       </c>
       <c r="C10">
-        <v>36.09087621167114</v>
+        <v>36.55080137981363</v>
       </c>
       <c r="D10">
-        <v>0.2597907664266936</v>
+        <v>18.60985231023347</v>
       </c>
       <c r="E10">
-        <v>0.266206582532699</v>
+        <v>10.84467014114924</v>
       </c>
       <c r="F10">
-        <v>0.2600315049119103</v>
+        <v>16.13674213051041</v>
       </c>
       <c r="G10">
-        <v>0.2595427562975338</v>
+        <v>18.79369333917971</v>
       </c>
       <c r="H10">
-        <v>0.260349853614635</v>
+        <v>29.71006928150475</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -634,25 +634,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>53.54908979312027</v>
+        <v>53.87699545038097</v>
       </c>
       <c r="C11">
-        <v>45.29978332652574</v>
+        <v>45.65839873882087</v>
       </c>
       <c r="D11">
-        <v>0.2566845647261172</v>
+        <v>8.190056381830818</v>
       </c>
       <c r="E11">
-        <v>0.2652218037878002</v>
+        <v>16.2436930055878</v>
       </c>
       <c r="F11">
-        <v>1.324756094874624</v>
+        <v>16.26751482437832</v>
       </c>
       <c r="G11">
-        <v>0.2563664453588865</v>
+        <v>32.32737052271275</v>
       </c>
       <c r="H11">
-        <v>1.323457669829913</v>
+        <v>23.24193205110446</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -660,25 +660,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>71.57082239095257</v>
+        <v>72.5804014788592</v>
       </c>
       <c r="C12">
-        <v>60.17597494014895</v>
+        <v>60.72209694555979</v>
       </c>
       <c r="D12">
-        <v>0.2514405064227141</v>
+        <v>10.91808667152936</v>
       </c>
       <c r="E12">
-        <v>0.2635685322304105</v>
+        <v>49.05275485384254</v>
       </c>
       <c r="F12">
-        <v>4.611752642368373</v>
+        <v>54.6477345287984</v>
       </c>
       <c r="G12">
-        <v>1.344257146668368</v>
+        <v>49.22986879958665</v>
       </c>
       <c r="H12">
-        <v>0.2524342386207764</v>
+        <v>34.97963250810057</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -686,25 +686,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>85.69534873469362</v>
+        <v>86.40213106132725</v>
       </c>
       <c r="C13">
-        <v>71.83076988691914</v>
+        <v>72.92364319467113</v>
       </c>
       <c r="D13">
-        <v>2.46775741377846</v>
+        <v>29.76964580039761</v>
       </c>
       <c r="E13">
-        <v>2.355561403309959</v>
+        <v>46.8174402247777</v>
       </c>
       <c r="F13">
-        <v>3.57200642907221</v>
+        <v>35.90214440525371</v>
       </c>
       <c r="G13">
-        <v>0.2466609781383513</v>
+        <v>38.71785041179746</v>
       </c>
       <c r="H13">
-        <v>0.2484028584959173</v>
+        <v>72.14330730481157</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -712,25 +712,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>86.94096489842828</v>
+        <v>87.71791673913042</v>
       </c>
       <c r="C14">
-        <v>72.87096263081462</v>
+        <v>73.77269364477009</v>
       </c>
       <c r="D14">
-        <v>1.358565273960585</v>
+        <v>32.48480096340825</v>
       </c>
       <c r="E14">
-        <v>1.309090739428662</v>
+        <v>55.16116513169082</v>
       </c>
       <c r="F14">
-        <v>1.356688655873017</v>
+        <v>35.94005890871207</v>
       </c>
       <c r="G14">
-        <v>1.360463861446458</v>
+        <v>30.47901746057333</v>
       </c>
       <c r="H14">
-        <v>0.2480655756293572</v>
+        <v>58.65760577448611</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -738,25 +738,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>85.90817156179996</v>
+        <v>86.79270311979064</v>
       </c>
       <c r="C15">
-        <v>72.05511288773911</v>
+        <v>73.06747324374153</v>
       </c>
       <c r="D15">
-        <v>0.2471398320965782</v>
+        <v>19.03348079282802</v>
       </c>
       <c r="E15">
-        <v>3.403026018938956</v>
+        <v>49.60277269723709</v>
       </c>
       <c r="F15">
-        <v>1.355652091706084</v>
+        <v>55.28513598860674</v>
       </c>
       <c r="G15">
-        <v>1.359354865729184</v>
+        <v>41.50726398690694</v>
       </c>
       <c r="H15">
-        <v>2.458499829307995</v>
+        <v>68.76371182329824</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -764,25 +764,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>85.81798607428287</v>
+        <v>86.84274244526338</v>
       </c>
       <c r="C16">
-        <v>71.97702422082635</v>
+        <v>72.95957333816423</v>
       </c>
       <c r="D16">
-        <v>0.247191555749378</v>
+        <v>27.0890568251119</v>
       </c>
       <c r="E16">
-        <v>1.308774817744586</v>
+        <v>44.08621431488965</v>
       </c>
       <c r="F16">
-        <v>1.355473566142384</v>
+        <v>52.5140321303595</v>
       </c>
       <c r="G16">
-        <v>1.359172162998262</v>
+        <v>49.81966745320788</v>
       </c>
       <c r="H16">
-        <v>0.2484051816848972</v>
+        <v>63.69286401927418</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -790,25 +790,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>85.7667658756376</v>
+        <v>87.14212753050239</v>
       </c>
       <c r="C17">
-        <v>71.86367437738896</v>
+        <v>72.71054555915022</v>
       </c>
       <c r="D17">
-        <v>0.2471741062084434</v>
+        <v>32.47959572736801</v>
       </c>
       <c r="E17">
-        <v>1.308734845435549</v>
+        <v>38.60071817175081</v>
       </c>
       <c r="F17">
-        <v>3.572262683260283</v>
+        <v>80.45461010185365</v>
       </c>
       <c r="G17">
-        <v>0.2466454528458036</v>
+        <v>63.77581719121006</v>
       </c>
       <c r="H17">
-        <v>2.458273196754498</v>
+        <v>55.2639084606892</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -816,25 +816,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>72.23546266634938</v>
+        <v>73.68418821995799</v>
       </c>
       <c r="C18">
-        <v>60.70132432367985</v>
+        <v>61.86341476461234</v>
       </c>
       <c r="D18">
-        <v>0.2512360800664487</v>
+        <v>29.56833288581934</v>
       </c>
       <c r="E18">
-        <v>0.2635087346988858</v>
+        <v>49.10538312192275</v>
       </c>
       <c r="F18">
-        <v>3.523733817105697</v>
+        <v>74.00730745990953</v>
       </c>
       <c r="G18">
-        <v>0.2507973678687586</v>
+        <v>57.53460541159166</v>
       </c>
       <c r="H18">
-        <v>3.516847955431748</v>
+        <v>73.46954391821666</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -842,25 +842,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>48.32189163184576</v>
+        <v>50.55888141499607</v>
       </c>
       <c r="C19">
-        <v>40.87286398292552</v>
+        <v>42.45255628575195</v>
       </c>
       <c r="D19">
-        <v>1.321266983515617</v>
+        <v>42.44693680143635</v>
       </c>
       <c r="E19">
-        <v>1.298493216140437</v>
+        <v>67.14611677595337</v>
       </c>
       <c r="F19">
-        <v>1.320402085051094</v>
+        <v>83.59157517146177</v>
       </c>
       <c r="G19">
-        <v>0.2578213462024129</v>
+        <v>75.47946635022488</v>
       </c>
       <c r="H19">
-        <v>4.502444734376246</v>
+        <v>101.444517027523</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -868,25 +868,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>42.14335835588317</v>
+        <v>43.64130626330396</v>
       </c>
       <c r="C20">
-        <v>35.66102027096328</v>
+        <v>36.93984296918191</v>
       </c>
       <c r="D20">
-        <v>2.372678603787931</v>
+        <v>29.12150622417492</v>
       </c>
       <c r="E20">
-        <v>2.32786812018348</v>
+        <v>58.72645299229748</v>
       </c>
       <c r="F20">
-        <v>3.426872045807388</v>
+        <v>61.50524451300725</v>
       </c>
       <c r="G20">
-        <v>1.316852764308057</v>
+        <v>50.80661482648864</v>
       </c>
       <c r="H20">
-        <v>3.423279025068911</v>
+        <v>84.39737195904577</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -894,25 +894,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.34314762467189</v>
+        <v>37.52231019108684</v>
       </c>
       <c r="C21">
-        <v>30.01787543298084</v>
+        <v>31.64080988428539</v>
       </c>
       <c r="D21">
-        <v>1.310326318843746</v>
+        <v>26.4198641619512</v>
       </c>
       <c r="E21">
-        <v>1.295216677693508</v>
+        <v>74.57139146589144</v>
       </c>
       <c r="F21">
-        <v>1.309731809797891</v>
+        <v>90.88918850993221</v>
       </c>
       <c r="G21">
-        <v>1.310945238605819</v>
+        <v>61.30089626180726</v>
       </c>
       <c r="H21">
-        <v>2.356025539104696</v>
+        <v>104.3650187312022</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -920,25 +920,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.87240084900301</v>
+        <v>34.3272125581035</v>
       </c>
       <c r="C22">
-        <v>27.93962142466232</v>
+        <v>29.29130979579332</v>
       </c>
       <c r="D22">
-        <v>1.308331030609878</v>
+        <v>23.76237630525954</v>
       </c>
       <c r="E22">
-        <v>1.294606985185827</v>
+        <v>61.00350471546056</v>
       </c>
       <c r="F22">
-        <v>2.353332137422129</v>
+        <v>63.74941069217343</v>
       </c>
       <c r="G22">
-        <v>1.308899503000235</v>
+        <v>31.88628082163538</v>
       </c>
       <c r="H22">
-        <v>1.307068141163787</v>
+        <v>87.48115290037595</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -946,25 +946,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.06152928340265</v>
+        <v>33.32943639711525</v>
       </c>
       <c r="C23">
-        <v>27.26014945151943</v>
+        <v>28.24064199294787</v>
       </c>
       <c r="D23">
-        <v>1.307703932799422</v>
+        <v>28.97870058576024</v>
       </c>
       <c r="E23">
-        <v>2.322010008390296</v>
+        <v>42.37042223048101</v>
       </c>
       <c r="F23">
-        <v>4.442263711478824</v>
+        <v>53.03566514087888</v>
       </c>
       <c r="G23">
-        <v>0.2623700975436781</v>
+        <v>39.79123260466888</v>
       </c>
       <c r="H23">
-        <v>1.306488059129173</v>
+        <v>65.81121648880752</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -972,25 +972,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.96576749780159</v>
+        <v>30.63281914849852</v>
       </c>
       <c r="C24">
-        <v>25.49168008102698</v>
+        <v>26.02683563822602</v>
       </c>
       <c r="D24">
-        <v>0.2631221695090668</v>
+        <v>18.50675471111228</v>
       </c>
       <c r="E24">
-        <v>1.293895990711009</v>
+        <v>23.85498114993836</v>
       </c>
       <c r="F24">
-        <v>4.433963649988985</v>
+        <v>29.13410742278888</v>
       </c>
       <c r="G24">
-        <v>1.30651835981251</v>
+        <v>29.1480136826575</v>
       </c>
       <c r="H24">
-        <v>0.263500942548254</v>
+        <v>36.12965476153023</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -998,25 +998,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.95872638177973</v>
+        <v>29.26345469573599</v>
       </c>
       <c r="C25">
-        <v>24.68398153100106</v>
+        <v>25.03844374789078</v>
       </c>
       <c r="D25">
-        <v>0.2634210020715058</v>
+        <v>10.6963375859636</v>
       </c>
       <c r="E25">
-        <v>0.2673855054977355</v>
+        <v>15.97492962767688</v>
       </c>
       <c r="F25">
-        <v>1.304665320305603</v>
+        <v>18.60433480806014</v>
       </c>
       <c r="G25">
-        <v>1.305615223339886</v>
+        <v>10.76265863196949</v>
       </c>
       <c r="H25">
-        <v>0.2637863201831487</v>
+        <v>23.0576671353369</v>
       </c>
     </row>
   </sheetData>
